--- a/BuatPengajuan.xlsx
+++ b/BuatPengajuan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACC-Seamless-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C52F9F-FD91-47D4-A4A7-FF326F228306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A024795C-4FAF-43C7-A815-219C67DDCF38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="20475" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
   <si>
     <t>Toyota</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>DP Harus Diisi</t>
+  </si>
+  <si>
+    <t>Uang Harus 20% Dari OTR</t>
   </si>
 </sst>
 </file>
@@ -495,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +513,7 @@
     <col min="11" max="11" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -859,17 +862,37 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1">
+        <v>24</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="M10" s="1">
+        <v>12500</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>

--- a/BuatPengajuan.xlsx
+++ b/BuatPengajuan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACC-Seamless-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A024795C-4FAF-43C7-A815-219C67DDCF38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAB0F96-6BF9-47B4-A1DF-D3F6587A6049}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="20475" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="615" windowWidth="18825" windowHeight="9390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
   <si>
     <t>Toyota</t>
   </si>
@@ -91,9 +90,6 @@
     <t>DKI Jakarta, Banten, Jawa Barat</t>
   </si>
   <si>
-    <t>Fatmawati</t>
-  </si>
-  <si>
     <t>Persen</t>
   </si>
   <si>
@@ -112,9 +108,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>DAIHATSU GRAND NEW XENIA</t>
-  </si>
-  <si>
     <t>MobileUtama</t>
   </si>
   <si>
@@ -176,6 +169,15 @@
   </si>
   <si>
     <t>Uang Harus 20% Dari OTR</t>
+  </si>
+  <si>
+    <t>FATMAWATI JAKARTA SELATAN</t>
+  </si>
+  <si>
+    <t>TOYOTA AGYA</t>
+  </si>
+  <si>
+    <t>TANGERANG BANTEN</t>
   </si>
 </sst>
 </file>
@@ -498,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +509,7 @@
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="44.85546875" bestFit="1" customWidth="1"/>
@@ -548,19 +550,19 @@
         <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -574,58 +576,58 @@
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H2" s="1">
         <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L2" s="1">
         <v>20</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H3" s="1">
         <v>48</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1">
@@ -633,7 +635,7 @@
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O3" s="1"/>
     </row>
@@ -641,26 +643,26 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H4" s="1">
         <v>60</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1">
@@ -668,7 +670,7 @@
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O4" s="1"/>
     </row>
@@ -683,29 +685,29 @@
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" s="1">
         <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L5" s="1">
         <v>25</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O5" s="1"/>
     </row>
@@ -720,58 +722,58 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1">
         <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
         <v>125000000</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H7" s="1">
         <v>60</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
@@ -779,34 +781,36 @@
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1">
         <v>60</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
@@ -814,47 +818,47 @@
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H9" s="1">
         <v>60</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -866,32 +870,32 @@
         <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1">
         <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
         <v>12500</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1178,44 +1182,44 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
